--- a/java/java_reference/src/leetcode/leetcode_summary.xlsx
+++ b/java/java_reference/src/leetcode/leetcode_summary.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaofei/repo/en-route/java/java_reference/src/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6A79A2-B812-BD49-BDEE-C84C755FA3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8A3F33-585E-714F-BFC7-BB94C319ABB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10360" yWindow="1360" windowWidth="28040" windowHeight="17440" xr2:uid="{38E26FC4-3B33-3442-8F28-447C9CCBA886}"/>
+    <workbookView xWindow="120" yWindow="500" windowWidth="33480" windowHeight="18780" xr2:uid="{38E26FC4-3B33-3442-8F28-447C9CCBA886}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
     <sheet name="说明" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">summary!$B$1:$B$234</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="264">
   <si>
     <t>Leetcode面试高频题分类刷题总结</t>
   </si>
@@ -804,6 +807,30 @@
   </si>
   <si>
     <t>子类别</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>再次深入理解并应用DFS</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>有思路，但边界处理不佳</t>
+  </si>
+  <si>
+    <t>递归到底，回溯保存路径</t>
   </si>
 </sst>
 </file>
@@ -1222,10 +1249,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E336D0-20F2-D048-B68A-DF908DD0420E}">
-  <dimension ref="A1:G234"/>
+  <dimension ref="A1:H234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H138" sqref="H138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -1236,10 +1264,12 @@
     <col min="4" max="4" width="78.33203125" style="5" customWidth="1"/>
     <col min="5" max="5" width="24.5" style="5" customWidth="1"/>
     <col min="6" max="6" width="23.83203125" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="5"/>
+    <col min="7" max="7" width="10.83203125" style="5"/>
+    <col min="8" max="8" width="58.6640625" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
@@ -1261,8 +1291,11 @@
       <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>148</v>
       </c>
@@ -1274,7 +1307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>56</v>
       </c>
@@ -1286,7 +1319,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>27</v>
       </c>
@@ -1298,7 +1331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>179</v>
       </c>
@@ -1310,7 +1343,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>75</v>
       </c>
@@ -1322,7 +1355,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>215</v>
       </c>
@@ -1334,7 +1367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -1346,7 +1379,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>206</v>
       </c>
@@ -1358,7 +1391,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>876</v>
       </c>
@@ -1370,7 +1403,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>160</v>
       </c>
@@ -1382,7 +1415,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>141</v>
       </c>
@@ -1394,7 +1427,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>92</v>
       </c>
@@ -1406,7 +1439,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>328</v>
       </c>
@@ -1418,7 +1451,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>225</v>
       </c>
@@ -1429,7 +1462,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>346</v>
       </c>
@@ -2672,7 +2705,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="8">
         <v>108</v>
       </c>
@@ -2683,7 +2716,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="8">
         <v>333</v>
       </c>
@@ -2694,7 +2727,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="8">
         <v>285</v>
       </c>
@@ -2705,7 +2738,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="8">
         <v>341</v>
       </c>
@@ -2715,8 +2748,20 @@
       <c r="D132" s="9" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E132" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="H132" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="8">
         <v>394</v>
       </c>
@@ -2727,7 +2772,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="8">
         <v>51</v>
       </c>
@@ -2738,7 +2783,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="8">
         <v>291</v>
       </c>
@@ -2749,7 +2794,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="8">
         <v>126</v>
       </c>
@@ -2760,7 +2805,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="8">
         <v>93</v>
       </c>
@@ -2770,8 +2815,17 @@
       <c r="D137" s="9" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E137" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G137" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H137" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="8">
         <v>22</v>
       </c>
@@ -2781,8 +2835,17 @@
       <c r="D138" s="9" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E138" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H138" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="8">
         <v>856</v>
       </c>
@@ -2793,7 +2856,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="8">
         <v>301</v>
       </c>
@@ -2804,7 +2867,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="8">
         <v>37</v>
       </c>
@@ -2815,7 +2878,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="8">
         <v>212</v>
       </c>
@@ -2826,7 +2889,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="8">
         <v>1087</v>
       </c>
@@ -2837,7 +2900,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="8">
         <v>399</v>
       </c>
@@ -3856,6 +3919,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B234" xr:uid="{06E336D0-20F2-D048-B68A-DF908DD0420E}"/>
   <hyperlinks>
     <hyperlink ref="D159" r:id="rId1" display="https://link.zhihu.com/?target=https%3A//leetcode.com/explore/item/3950" xr:uid="{7958C2EB-402B-E448-9391-F3B838C883E3}"/>
     <hyperlink ref="D229" r:id="rId2" display="https://link.zhihu.com/?target=https%3A//leetcode.com/problems/wildcard-matching" xr:uid="{F4977E39-20C5-4D4A-A348-42A5D048932E}"/>

--- a/java/java_reference/src/leetcode/leetcode_summary.xlsx
+++ b/java/java_reference/src/leetcode/leetcode_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaofei/repo/en-route/java/java_reference/src/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8A3F33-585E-714F-BFC7-BB94C319ABB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D355A742-FA5F-E142-A663-9F9D58844184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="500" windowWidth="33480" windowHeight="18780" xr2:uid="{38E26FC4-3B33-3442-8F28-447C9CCBA886}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="265">
   <si>
     <t>Leetcode面试高频题分类刷题总结</t>
   </si>
@@ -831,6 +831,9 @@
   </si>
   <si>
     <t>递归到底，回溯保存路径</t>
+  </si>
+  <si>
+    <t>dp和记忆方法需要再实践</t>
   </si>
 </sst>
 </file>
@@ -1252,8 +1255,8 @@
   <dimension ref="A1:H234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H138" sqref="H138"/>
+      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H156" sqref="H156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -2911,7 +2914,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="8">
         <v>1274</v>
       </c>
@@ -2922,7 +2925,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="8">
         <v>1376</v>
       </c>
@@ -2933,7 +2936,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="8">
         <v>694</v>
       </c>
@@ -2944,7 +2947,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="8">
         <v>131</v>
       </c>
@@ -2955,7 +2958,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="8">
         <v>17</v>
       </c>
@@ -2965,8 +2968,17 @@
       <c r="D149" s="9" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E149" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G149" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="8">
         <v>39</v>
       </c>
@@ -2977,7 +2989,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="8">
         <v>78</v>
       </c>
@@ -2988,7 +3000,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="8">
         <v>46</v>
       </c>
@@ -2999,7 +3011,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="8">
         <v>77</v>
       </c>
@@ -3010,7 +3022,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="8">
         <v>698</v>
       </c>
@@ -3021,7 +3033,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="8">
         <v>526</v>
       </c>
@@ -3032,7 +3044,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="8">
         <v>139</v>
       </c>
@@ -3042,8 +3054,17 @@
       <c r="D156" s="9" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E156" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G156" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H156" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="8">
         <v>72</v>
       </c>
@@ -3054,7 +3075,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="8">
         <v>377</v>
       </c>
@@ -3065,7 +3086,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="8">
         <v>1235</v>
       </c>
@@ -3076,7 +3097,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="8">
         <v>1335</v>
       </c>

--- a/java/java_reference/src/leetcode/leetcode_summary.xlsx
+++ b/java/java_reference/src/leetcode/leetcode_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaofei/repo/en-route/java/java_reference/src/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D355A742-FA5F-E142-A663-9F9D58844184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0806E5FF-2867-3843-9622-C4004FC342EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="500" windowWidth="33480" windowHeight="18780" xr2:uid="{38E26FC4-3B33-3442-8F28-447C9CCBA886}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="266">
   <si>
     <t>Leetcode面试高频题分类刷题总结</t>
   </si>
@@ -834,6 +834,9 @@
   </si>
   <si>
     <t>dp和记忆方法需要再实践</t>
+  </si>
+  <si>
+    <t>重点在于适用DFS模式的识别</t>
   </si>
 </sst>
 </file>
@@ -1255,8 +1258,8 @@
   <dimension ref="A1:H234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H156" sqref="H156"/>
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H133" sqref="H133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -2773,6 +2776,15 @@
       </c>
       <c r="D133" s="9" t="s">
         <v>148</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H133" s="5" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">

--- a/java/java_reference/src/leetcode/leetcode_summary.xlsx
+++ b/java/java_reference/src/leetcode/leetcode_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaofei/repo/en-route/java/java_reference/src/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0806E5FF-2867-3843-9622-C4004FC342EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653039B7-737E-B142-BF46-EDBFA5F9ACC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="500" windowWidth="33480" windowHeight="18780" xr2:uid="{38E26FC4-3B33-3442-8F28-447C9CCBA886}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="267">
   <si>
     <t>Leetcode面试高频题分类刷题总结</t>
   </si>
@@ -837,6 +837,9 @@
   </si>
   <si>
     <t>重点在于适用DFS模式的识别</t>
+  </si>
+  <si>
+    <t>边界情况没处理好</t>
   </si>
 </sst>
 </file>
@@ -1258,8 +1261,8 @@
   <dimension ref="A1:H234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H133" sqref="H133"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H124" sqref="H124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -2535,7 +2538,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="8">
         <v>101</v>
       </c>
@@ -2546,7 +2549,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="8">
         <v>951</v>
       </c>
@@ -2556,8 +2559,14 @@
       <c r="D114" s="9" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E114" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="8">
         <v>236</v>
       </c>
@@ -2568,7 +2577,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="8">
         <v>105</v>
       </c>
@@ -2579,7 +2588,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="8">
         <v>104</v>
       </c>
@@ -2590,7 +2599,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="8">
         <v>987</v>
       </c>
@@ -2601,7 +2610,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="8">
         <v>1485</v>
       </c>
@@ -2612,7 +2621,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="8">
         <v>572</v>
       </c>
@@ -2623,7 +2632,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="8">
         <v>863</v>
       </c>
@@ -2634,7 +2643,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="8">
         <v>1110</v>
       </c>
@@ -2645,7 +2654,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="8">
         <v>230</v>
       </c>
@@ -2656,7 +2665,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="8">
         <v>98</v>
       </c>
@@ -2666,8 +2675,17 @@
       <c r="D124" s="9" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E124" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="8">
         <v>270</v>
       </c>
@@ -2678,7 +2696,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="8">
         <v>235</v>
       </c>
@@ -2689,7 +2707,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="8">
         <v>669</v>
       </c>
@@ -2700,7 +2718,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="8">
         <v>700</v>
       </c>

--- a/java/java_reference/src/leetcode/leetcode_summary.xlsx
+++ b/java/java_reference/src/leetcode/leetcode_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaofei/repo/en-route/java/java_reference/src/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653039B7-737E-B142-BF46-EDBFA5F9ACC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D4D3E9-9D84-A54C-9ABE-A92075E04DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="500" windowWidth="33480" windowHeight="18780" xr2:uid="{38E26FC4-3B33-3442-8F28-447C9CCBA886}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="271">
   <si>
     <t>Leetcode面试高频题分类刷题总结</t>
   </si>
@@ -840,6 +840,18 @@
   </si>
   <si>
     <t>边界情况没处理好</t>
+  </si>
+  <si>
+    <t>对dp和dfs实现有典型代表意义</t>
+  </si>
+  <si>
+    <t>基于hashmap仍然不够，还有精巧之处</t>
+  </si>
+  <si>
+    <t>边界处理比较麻烦</t>
+  </si>
+  <si>
+    <t>这个题理解起来有些问题</t>
   </si>
 </sst>
 </file>
@@ -1261,8 +1273,8 @@
   <dimension ref="A1:H234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H124" sqref="H124"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -1482,7 +1494,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>281</v>
       </c>
@@ -1493,7 +1505,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>1429</v>
       </c>
@@ -1504,7 +1516,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>54</v>
       </c>
@@ -1515,7 +1527,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>362</v>
       </c>
@@ -1526,7 +1538,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>155</v>
       </c>
@@ -1537,7 +1549,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>232</v>
       </c>
@@ -1548,7 +1560,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>150</v>
       </c>
@@ -1559,7 +1571,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>224</v>
       </c>
@@ -1570,7 +1582,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>20</v>
       </c>
@@ -1581,7 +1593,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>1472</v>
       </c>
@@ -1591,8 +1603,17 @@
       <c r="D26" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>1209</v>
       </c>
@@ -1603,7 +1624,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>1249</v>
       </c>
@@ -1614,7 +1635,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>735</v>
       </c>
@@ -1625,7 +1646,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>1</v>
       </c>
@@ -1636,7 +1657,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>146</v>
       </c>
@@ -1647,7 +1668,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>128</v>
       </c>
@@ -1656,6 +1677,15 @@
       </c>
       <c r="D32" s="9" t="s">
         <v>42</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1834,7 +1864,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>1438</v>
       </c>
@@ -1845,7 +1875,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <v>895</v>
       </c>
@@ -1856,7 +1886,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
         <v>34</v>
       </c>
@@ -1867,7 +1897,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="8">
         <v>33</v>
       </c>
@@ -1878,7 +1908,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="8">
         <v>1095</v>
       </c>
@@ -1889,7 +1919,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="8">
         <v>162</v>
       </c>
@@ -1899,8 +1929,20 @@
       <c r="D54" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="8">
         <v>278</v>
       </c>
@@ -1911,7 +1953,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="8">
         <v>74</v>
       </c>
@@ -1922,7 +1964,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="8">
         <v>240</v>
       </c>
@@ -1933,7 +1975,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="8">
         <v>69</v>
       </c>
@@ -1944,7 +1986,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
         <v>540</v>
       </c>
@@ -1955,7 +1997,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="8">
         <v>644</v>
       </c>
@@ -1966,7 +2008,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="8">
         <v>528</v>
       </c>
@@ -1977,7 +2019,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="8">
         <v>1300</v>
       </c>
@@ -1988,7 +2030,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="8">
         <v>1060</v>
       </c>
@@ -1999,7 +2041,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="8">
         <v>1062</v>
       </c>
@@ -3114,6 +3156,15 @@
       </c>
       <c r="D158" s="9" t="s">
         <v>173</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G158" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H158" s="5" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">

--- a/java/java_reference/src/leetcode/leetcode_summary.xlsx
+++ b/java/java_reference/src/leetcode/leetcode_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaofei/repo/en-route/java/java_reference/src/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D4D3E9-9D84-A54C-9ABE-A92075E04DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4375E412-8EE8-E04E-836A-64A67D240CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="500" windowWidth="33480" windowHeight="18780" xr2:uid="{38E26FC4-3B33-3442-8F28-447C9CCBA886}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="273">
   <si>
     <t>Leetcode面试高频题分类刷题总结</t>
   </si>
@@ -852,6 +852,12 @@
   </si>
   <si>
     <t>这个题理解起来有些问题</t>
+  </si>
+  <si>
+    <t>dp或者双指针经典</t>
+  </si>
+  <si>
+    <t>边界和处理思路还需要再深入研究</t>
   </si>
 </sst>
 </file>
@@ -1273,8 +1279,8 @@
   <dimension ref="A1:H234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -2052,7 +2058,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="8">
         <v>1891</v>
       </c>
@@ -2063,7 +2069,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="8">
         <v>410</v>
       </c>
@@ -2074,7 +2080,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="8">
         <v>409</v>
       </c>
@@ -2085,7 +2091,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="8">
         <v>125</v>
       </c>
@@ -2096,7 +2102,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="8">
         <v>5</v>
       </c>
@@ -2107,7 +2113,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="8">
         <v>647</v>
       </c>
@@ -2117,8 +2123,14 @@
       <c r="D70" s="9" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E70" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="8">
         <v>1</v>
       </c>
@@ -2129,7 +2141,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="8">
         <v>167</v>
       </c>
@@ -2140,7 +2152,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="8">
         <v>15</v>
       </c>
@@ -2151,7 +2163,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="8">
         <v>16</v>
       </c>
@@ -2162,7 +2174,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="8">
         <v>18</v>
       </c>
@@ -2173,7 +2185,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="8">
         <v>454</v>
       </c>
@@ -2184,7 +2196,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="8">
         <v>277</v>
       </c>
@@ -2195,7 +2207,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="8">
         <v>11</v>
       </c>
@@ -2206,7 +2218,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="8">
         <v>186</v>
       </c>
@@ -2217,7 +2229,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="8">
         <v>283</v>
       </c>
@@ -2228,7 +2240,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="8">
         <v>26</v>
       </c>
@@ -2239,7 +2251,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="8">
         <v>395</v>
       </c>
@@ -2249,8 +2261,17 @@
       <c r="D82" s="9" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E82" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="8">
         <v>340</v>
       </c>
@@ -2260,8 +2281,11 @@
       <c r="D83" s="9" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E83" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="8">
         <v>424</v>
       </c>
@@ -2272,7 +2296,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="8">
         <v>76</v>
       </c>
@@ -2283,7 +2307,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="8">
         <v>3</v>
       </c>
@@ -2294,7 +2318,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="8">
         <v>1004</v>
       </c>
@@ -2305,7 +2329,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="8">
         <v>1658</v>
       </c>
@@ -2316,7 +2340,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="8">
         <v>102</v>
       </c>
@@ -2327,7 +2351,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="8">
         <v>103</v>
       </c>
@@ -2338,7 +2362,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="8">
         <v>297</v>
       </c>
@@ -2349,7 +2373,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="8">
         <v>314</v>
       </c>
@@ -2360,7 +2384,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="8">
         <v>200</v>
       </c>
@@ -2371,7 +2395,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="8">
         <v>133</v>
       </c>
@@ -2382,7 +2406,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="8">
         <v>127</v>
       </c>
@@ -2393,7 +2417,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="8">
         <v>490</v>
       </c>

--- a/java/java_reference/src/leetcode/leetcode_summary.xlsx
+++ b/java/java_reference/src/leetcode/leetcode_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaofei/repo/en-route/java/java_reference/src/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4375E412-8EE8-E04E-836A-64A67D240CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262D2051-4674-644F-AF91-BFDA6CEDBE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="500" windowWidth="33480" windowHeight="18780" xr2:uid="{38E26FC4-3B33-3442-8F28-447C9CCBA886}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="273">
   <si>
     <t>Leetcode面试高频题分类刷题总结</t>
   </si>
@@ -1279,8 +1279,8 @@
   <dimension ref="A1:H234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G83" sqref="G83"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -2404,6 +2404,15 @@
       </c>
       <c r="D94" s="9" t="s">
         <v>108</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">

--- a/java/java_reference/src/leetcode/leetcode_summary.xlsx
+++ b/java/java_reference/src/leetcode/leetcode_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaofei/repo/en-route/java/java_reference/src/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262D2051-4674-644F-AF91-BFDA6CEDBE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC73F0C-F6F4-A449-A84A-4257AE81A291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="500" windowWidth="33480" windowHeight="18780" xr2:uid="{38E26FC4-3B33-3442-8F28-447C9CCBA886}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="274">
   <si>
     <t>Leetcode面试高频题分类刷题总结</t>
   </si>
@@ -858,6 +858,9 @@
   </si>
   <si>
     <t>边界和处理思路还需要再深入研究</t>
+  </si>
+  <si>
+    <t>数据结构的灵活运用</t>
   </si>
 </sst>
 </file>
@@ -1279,8 +1282,8 @@
   <dimension ref="A1:H234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H94" sqref="H94"/>
+      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H191" sqref="H191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -3398,7 +3401,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="8">
         <v>1268</v>
       </c>
@@ -3409,7 +3412,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="8">
         <v>212</v>
       </c>
@@ -3420,7 +3423,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="8">
         <v>1166</v>
       </c>
@@ -3431,7 +3434,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="8">
         <v>85</v>
       </c>
@@ -3443,7 +3446,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="8">
         <v>84</v>
       </c>
@@ -3455,7 +3458,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="8">
         <v>907</v>
       </c>
@@ -3467,7 +3470,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="8">
         <v>739</v>
       </c>
@@ -3479,7 +3482,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="8">
         <v>901</v>
       </c>
@@ -3491,7 +3494,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="8">
         <v>503</v>
       </c>
@@ -3503,7 +3506,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="8">
         <v>239</v>
       </c>
@@ -3515,7 +3518,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="8">
         <v>253</v>
       </c>
@@ -3527,7 +3530,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="8">
         <v>1094</v>
       </c>
@@ -3539,7 +3542,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="8">
         <v>218</v>
       </c>
@@ -3551,7 +3554,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="8">
         <v>759</v>
       </c>
@@ -3563,7 +3566,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="8">
         <v>729</v>
       </c>
@@ -3574,8 +3577,17 @@
       <c r="D191" s="9" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E191" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G191" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H191" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="8">
         <v>981</v>
       </c>

--- a/java/java_reference/src/leetcode/leetcode_summary.xlsx
+++ b/java/java_reference/src/leetcode/leetcode_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaofei/repo/en-route/java/java_reference/src/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC73F0C-F6F4-A449-A84A-4257AE81A291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E459E27-52F5-E54C-9DBC-F711E6E4ADCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="500" windowWidth="33480" windowHeight="18780" xr2:uid="{38E26FC4-3B33-3442-8F28-447C9CCBA886}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="276">
   <si>
     <t>Leetcode面试高频题分类刷题总结</t>
   </si>
@@ -861,6 +861,12 @@
   </si>
   <si>
     <t>数据结构的灵活运用</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>dfs / dp</t>
   </si>
 </sst>
 </file>
@@ -1283,7 +1289,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H191" sqref="H191"/>
+      <selection pane="bottomLeft" activeCell="F212" sqref="F212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -3598,8 +3604,11 @@
       <c r="D192" s="9" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E192" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="8">
         <v>846</v>
       </c>
@@ -3611,7 +3620,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="8">
         <v>218</v>
       </c>
@@ -3623,7 +3632,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="8">
         <v>480</v>
       </c>
@@ -3635,7 +3644,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="8">
         <v>318</v>
       </c>
@@ -3647,7 +3656,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="8">
         <v>674</v>
       </c>
@@ -3657,8 +3666,11 @@
       <c r="D197" s="9" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E197" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="8">
         <v>62</v>
       </c>
@@ -3668,8 +3680,17 @@
       <c r="D198" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E198" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G198" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H198" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="8">
         <v>70</v>
       </c>
@@ -3680,7 +3701,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="8">
         <v>64</v>
       </c>
@@ -3691,7 +3712,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="8">
         <v>368</v>
       </c>
@@ -3702,7 +3723,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="8">
         <v>300</v>
       </c>
@@ -3713,7 +3734,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="8">
         <v>354</v>
       </c>
@@ -3724,7 +3745,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="8">
         <v>256</v>
       </c>
@@ -3735,7 +3756,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="8">
         <v>121</v>
       </c>
@@ -3746,7 +3767,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="8">
         <v>55</v>
       </c>
@@ -3757,7 +3778,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="8">
         <v>45</v>
       </c>
@@ -3768,7 +3789,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="8">
         <v>132</v>
       </c>

--- a/java/java_reference/src/leetcode/leetcode_summary.xlsx
+++ b/java/java_reference/src/leetcode/leetcode_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaofei/repo/en-route/java/java_reference/src/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E459E27-52F5-E54C-9DBC-F711E6E4ADCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CB9B5C-288A-0B44-9994-122F5E95FBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="500" windowWidth="33480" windowHeight="18780" xr2:uid="{38E26FC4-3B33-3442-8F28-447C9CCBA886}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="277">
   <si>
     <t>Leetcode面试高频题分类刷题总结</t>
   </si>
@@ -867,6 +867,9 @@
   </si>
   <si>
     <t>dfs / dp</t>
+  </si>
+  <si>
+    <t>提升速度和边界处理</t>
   </si>
 </sst>
 </file>
@@ -1288,8 +1291,8 @@
   <dimension ref="A1:H234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F212" sqref="F212"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -1660,6 +1663,15 @@
       <c r="D29" s="9" t="s">
         <v>38</v>
       </c>
+      <c r="E29" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
@@ -1703,7 +1715,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>73</v>
       </c>
@@ -1714,7 +1726,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>380</v>
       </c>
@@ -1725,7 +1737,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>49</v>
       </c>
@@ -1736,7 +1748,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>350</v>
       </c>
@@ -1747,7 +1759,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>299</v>
       </c>
@@ -1758,7 +1770,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>348</v>
       </c>
@@ -1769,9 +1781,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
-        <v>937</v>
+        <v>973</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>49</v>
@@ -1779,8 +1791,11 @@
       <c r="D39" s="9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>347</v>
       </c>
@@ -1791,7 +1806,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <v>23</v>
       </c>
@@ -1802,7 +1817,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
         <v>264</v>
       </c>
@@ -1813,7 +1828,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
         <v>1086</v>
       </c>
@@ -1824,7 +1839,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
         <v>88</v>
       </c>
@@ -1835,7 +1850,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>692</v>
       </c>
@@ -1846,7 +1861,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <v>378</v>
       </c>
@@ -1857,7 +1872,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>295</v>
       </c>
@@ -1868,7 +1883,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
         <v>767</v>
       </c>

--- a/java/java_reference/src/leetcode/leetcode_summary.xlsx
+++ b/java/java_reference/src/leetcode/leetcode_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaofei/repo/en-route/java/java_reference/src/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CB9B5C-288A-0B44-9994-122F5E95FBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC04076-04FA-4042-9CBC-4D21D5590B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="500" windowWidth="33480" windowHeight="18780" xr2:uid="{38E26FC4-3B33-3442-8F28-447C9CCBA886}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="278">
   <si>
     <t>Leetcode面试高频题分类刷题总结</t>
   </si>
@@ -870,6 +870,9 @@
   </si>
   <si>
     <t>提升速度和边界处理</t>
+  </si>
+  <si>
+    <t>没有想清楚到底怎么处理</t>
   </si>
 </sst>
 </file>
@@ -1292,7 +1295,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
+      <selection pane="bottomLeft" activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -1715,7 +1718,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>73</v>
       </c>
@@ -1726,7 +1729,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>380</v>
       </c>
@@ -1737,7 +1740,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>49</v>
       </c>
@@ -1748,7 +1751,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>350</v>
       </c>
@@ -1759,7 +1762,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>299</v>
       </c>
@@ -1770,7 +1773,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>348</v>
       </c>
@@ -1781,7 +1784,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>973</v>
       </c>
@@ -1795,7 +1798,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>347</v>
       </c>
@@ -1806,7 +1809,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <v>23</v>
       </c>
@@ -1817,7 +1820,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
         <v>264</v>
       </c>
@@ -1828,7 +1831,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
         <v>1086</v>
       </c>
@@ -1839,7 +1842,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
         <v>88</v>
       </c>
@@ -1850,7 +1853,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>692</v>
       </c>
@@ -1861,7 +1864,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <v>378</v>
       </c>
@@ -1872,7 +1875,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>295</v>
       </c>
@@ -1883,7 +1886,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
         <v>767</v>
       </c>
@@ -1892,6 +1895,15 @@
       </c>
       <c r="D48" s="9" t="s">
         <v>59</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">

--- a/java/java_reference/src/leetcode/leetcode_summary.xlsx
+++ b/java/java_reference/src/leetcode/leetcode_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaofei/repo/en-route/java/java_reference/src/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC04076-04FA-4042-9CBC-4D21D5590B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81912360-614D-1149-9431-1FE0BB468F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="500" windowWidth="33480" windowHeight="18780" xr2:uid="{38E26FC4-3B33-3442-8F28-447C9CCBA886}"/>
+    <workbookView xWindow="120" yWindow="500" windowWidth="33480" windowHeight="18640" xr2:uid="{38E26FC4-3B33-3442-8F28-447C9CCBA886}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="279">
   <si>
     <t>Leetcode面试高频题分类刷题总结</t>
   </si>
@@ -873,6 +873,9 @@
   </si>
   <si>
     <t>没有想清楚到底怎么处理</t>
+  </si>
+  <si>
+    <t>dp/dfs加缓存</t>
   </si>
 </sst>
 </file>
@@ -1294,8 +1297,8 @@
   <dimension ref="A1:H234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H48" sqref="H48"/>
+      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H162" sqref="H162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -3258,7 +3261,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="8">
         <v>1216</v>
       </c>
@@ -3269,7 +3272,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="8">
         <v>97</v>
       </c>
@@ -3279,8 +3282,14 @@
       <c r="D162" s="9" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G162" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H162" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="8">
         <v>472</v>
       </c>
@@ -3291,7 +3300,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="8">
         <v>403</v>
       </c>
@@ -3302,7 +3311,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="8">
         <v>329</v>
       </c>
@@ -3313,7 +3322,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="8">
         <v>53</v>
       </c>
@@ -3324,7 +3333,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="8">
         <v>1423</v>
       </c>
@@ -3335,7 +3344,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="8">
         <v>1031</v>
       </c>
@@ -3346,7 +3355,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="8">
         <v>523</v>
       </c>
@@ -3357,7 +3366,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="8">
         <v>304</v>
       </c>
@@ -3368,7 +3377,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="8">
         <v>721</v>
       </c>
@@ -3379,7 +3388,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="8">
         <v>547</v>
       </c>
@@ -3390,7 +3399,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="8">
         <v>737</v>
       </c>
@@ -3401,7 +3410,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="8">
         <v>305</v>
       </c>
@@ -3412,7 +3421,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="8">
         <v>208</v>
       </c>
@@ -3423,7 +3432,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="8">
         <v>211</v>
       </c>

--- a/java/java_reference/src/leetcode/leetcode_summary.xlsx
+++ b/java/java_reference/src/leetcode/leetcode_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaofei/repo/en-route/java/java_reference/src/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81912360-614D-1149-9431-1FE0BB468F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1D3586-4244-704D-AA16-6B8E0CBC4C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="500" windowWidth="33480" windowHeight="18640" xr2:uid="{38E26FC4-3B33-3442-8F28-447C9CCBA886}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="279">
   <si>
     <t>Leetcode面试高频题分类刷题总结</t>
   </si>
@@ -1297,8 +1297,8 @@
   <dimension ref="A1:H234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H162" sqref="H162"/>
+      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E200" sqref="E200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -3736,6 +3736,9 @@
       <c r="D199" s="9" t="s">
         <v>220</v>
       </c>
+      <c r="E199" s="5" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="8">
@@ -3746,6 +3749,9 @@
       </c>
       <c r="D200" s="9" t="s">
         <v>221</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">

--- a/java/java_reference/src/leetcode/leetcode_summary.xlsx
+++ b/java/java_reference/src/leetcode/leetcode_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaofei/repo/en-route/java/java_reference/src/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1D3586-4244-704D-AA16-6B8E0CBC4C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EAEC2D-61C0-8444-8F3C-9AA26B6BA5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="500" windowWidth="33480" windowHeight="18640" xr2:uid="{38E26FC4-3B33-3442-8F28-447C9CCBA886}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="279">
   <si>
     <t>Leetcode面试高频题分类刷题总结</t>
   </si>
@@ -1298,7 +1298,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E200" sqref="E200"/>
+      <selection pane="bottomLeft" activeCell="H201" sqref="H201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -3764,6 +3764,12 @@
       <c r="D201" s="9" t="s">
         <v>222</v>
       </c>
+      <c r="E201" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G201" s="5" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="8">
@@ -3774,6 +3780,12 @@
       </c>
       <c r="D202" s="9" t="s">
         <v>223</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G202" s="5" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">

--- a/java/java_reference/src/leetcode/leetcode_summary.xlsx
+++ b/java/java_reference/src/leetcode/leetcode_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaofei/repo/en-route/java/java_reference/src/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EAEC2D-61C0-8444-8F3C-9AA26B6BA5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF7D25B-9AF0-F54B-A6C5-DB0F9BC9628E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="500" windowWidth="33480" windowHeight="18640" xr2:uid="{38E26FC4-3B33-3442-8F28-447C9CCBA886}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="279">
   <si>
     <t>Leetcode面试高频题分类刷题总结</t>
   </si>
@@ -1297,8 +1297,8 @@
   <dimension ref="A1:H234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H201" sqref="H201"/>
+      <pane ySplit="1" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E216" sqref="E216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -3854,7 +3854,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="8">
         <v>312</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="8">
         <v>1143</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="8">
         <v>1062</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="8">
         <v>718</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="8">
         <v>174</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="8">
         <v>115</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="8">
         <v>72</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="8">
         <v>91</v>
       </c>
@@ -3941,8 +3941,11 @@
       <c r="D216" s="9" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E216" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="8">
         <v>639</v>
       </c>
@@ -3953,7 +3956,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="8">
         <v>712</v>
       </c>
@@ -3964,7 +3967,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="8">
         <v>221</v>
       </c>
@@ -3975,7 +3978,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="8">
         <v>1277</v>
       </c>
@@ -3986,7 +3989,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="8">
         <v>198</v>
       </c>
@@ -3997,7 +4000,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="8">
         <v>213</v>
       </c>
@@ -4008,7 +4011,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="8">
         <v>740</v>
       </c>
@@ -4019,7 +4022,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="8">
         <v>87</v>
       </c>

--- a/java/java_reference/src/leetcode/leetcode_summary.xlsx
+++ b/java/java_reference/src/leetcode/leetcode_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaofei/repo/en-route/java/java_reference/src/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF7D25B-9AF0-F54B-A6C5-DB0F9BC9628E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8508867A-9A40-F146-8BB8-C6E96923DC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="500" windowWidth="33480" windowHeight="18640" xr2:uid="{38E26FC4-3B33-3442-8F28-447C9CCBA886}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="280">
   <si>
     <t>Leetcode面试高频题分类刷题总结</t>
   </si>
@@ -876,6 +876,9 @@
   </si>
   <si>
     <t>dp/dfs加缓存</t>
+  </si>
+  <si>
+    <t>based on 198</t>
   </si>
 </sst>
 </file>
@@ -1297,8 +1300,8 @@
   <dimension ref="A1:H234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E216" sqref="E216"/>
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H223" sqref="H223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -3854,7 +3857,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="8">
         <v>312</v>
       </c>
@@ -3865,7 +3868,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="8">
         <v>1143</v>
       </c>
@@ -3876,7 +3879,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="8">
         <v>1062</v>
       </c>
@@ -3887,7 +3890,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="8">
         <v>718</v>
       </c>
@@ -3898,7 +3901,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="8">
         <v>174</v>
       </c>
@@ -3909,7 +3912,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="8">
         <v>115</v>
       </c>
@@ -3920,7 +3923,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="8">
         <v>72</v>
       </c>
@@ -3931,7 +3934,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="8">
         <v>91</v>
       </c>
@@ -3945,7 +3948,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="8">
         <v>639</v>
       </c>
@@ -3956,7 +3959,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="8">
         <v>712</v>
       </c>
@@ -3967,7 +3970,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="8">
         <v>221</v>
       </c>
@@ -3978,7 +3981,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="8">
         <v>1277</v>
       </c>
@@ -3989,7 +3992,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="8">
         <v>198</v>
       </c>
@@ -4000,7 +4003,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="8">
         <v>213</v>
       </c>
@@ -4011,7 +4014,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="8">
         <v>740</v>
       </c>
@@ -4021,8 +4024,17 @@
       <c r="D223" s="9" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E223" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G223" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H223" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="8">
         <v>87</v>
       </c>

--- a/java/java_reference/src/leetcode/leetcode_summary.xlsx
+++ b/java/java_reference/src/leetcode/leetcode_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaofei/repo/en-route/java/java_reference/src/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8508867A-9A40-F146-8BB8-C6E96923DC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951D8160-B7AC-0445-A8F5-13E38983E9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="500" windowWidth="33480" windowHeight="18640" xr2:uid="{38E26FC4-3B33-3442-8F28-447C9CCBA886}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="281">
   <si>
     <t>Leetcode面试高频题分类刷题总结</t>
   </si>
@@ -879,6 +879,9 @@
   </si>
   <si>
     <t>based on 198</t>
+  </si>
+  <si>
+    <t>only using dfs</t>
   </si>
 </sst>
 </file>
@@ -1300,8 +1303,8 @@
   <dimension ref="A1:H234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H223" sqref="H223"/>
+      <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H225" sqref="H225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -4045,7 +4048,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="8">
         <v>1140</v>
       </c>
@@ -4055,8 +4058,17 @@
       <c r="D225" s="9" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E225" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G225" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H225" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="8">
         <v>322</v>
       </c>
@@ -4067,7 +4079,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="8">
         <v>518</v>
       </c>
@@ -4078,7 +4090,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="8">
         <v>1048</v>
       </c>
@@ -4089,7 +4101,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="8">
         <v>44</v>
       </c>
@@ -4100,7 +4112,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="8">
         <v>10</v>
       </c>
@@ -4111,7 +4123,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="8">
         <v>32</v>
       </c>
@@ -4122,7 +4134,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="8">
         <v>1235</v>
       </c>
@@ -4133,7 +4145,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="8">
         <v>1043</v>
       </c>
@@ -4144,7 +4156,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="8">
         <v>926</v>
       </c>
